--- a/ig/nr-init-telesuivi/ValueSet-TypeCarteVS.xlsx
+++ b/ig/nr-init-telesuivi/ValueSet-TypeCarteVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesuivi/ValueSet/TypeCarteVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/ValueSet/TypeCarteVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-23T09:53:16+00:00</t>
+    <t>2023-11-28T14:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesuivi/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/CodeSystem/type-carte-code-system</t>
   </si>
 </sst>
 </file>
